--- a/src/documentation/Results.xlsx
+++ b/src/documentation/Results.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="Sequential results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -213,6 +213,1061 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matrix multiplication 1 node</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27572900262467193"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$B$5:$B$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$B$5,results!$B$9,results!$B$13,results!$B$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>results!$C$5:$C$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(results!$C$5,results!$C$9,results!$C$13,results!$C$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1109999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.022870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.699950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C42-480B-BC28-055815053D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="592183128"/>
+        <c:axId val="592182472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="592183128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592182472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592182472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592183128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:R20"/>
+  <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,908 +1578,909 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>9</v>
+      <c r="P4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="6">
         <f>'Sequential results'!$D$13</f>
         <v>1.1109999999999998E-2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="7">
         <f>'Sequential results'!D28</f>
         <v>5.2500000000000012E-3</v>
       </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
+      <c r="H5" s="7">
         <f>'Sequential results'!E28</f>
         <v>3.700000000000001E-3</v>
       </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
+      <c r="L5" s="7">
         <f>'Sequential results'!F28</f>
         <v>3.700000000000001E-3</v>
       </c>
+      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="7">
+        <f>MAX(D5:O5)</f>
+        <v>5.2500000000000012E-3</v>
+      </c>
       <c r="Q5" s="7">
-        <f>MAX(E5:P5)</f>
-        <v>5.2500000000000012E-3</v>
-      </c>
-      <c r="R5" s="7">
-        <f>C5/Q5</f>
+        <f>C5/P5</f>
         <v>2.1161904761904755</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="6">
         <f>'Sequential results'!$D$13</f>
         <v>1.1109999999999998E-2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="7">
         <f>'Sequential results'!D43</f>
         <v>2.9199999999999999E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="E6" s="7">
         <f>'Sequential results'!E43</f>
         <v>2.0200000000000001E-3</v>
       </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
+      <c r="H6" s="7">
         <f>'Sequential results'!F43</f>
         <v>2.0799999999999994E-3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="I6" s="7">
         <f>'Sequential results'!G43</f>
         <v>3.0300000000000001E-3</v>
       </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
+      <c r="L6" s="7">
         <f>'Sequential results'!H43</f>
         <v>2.0600000000000002E-3</v>
       </c>
-      <c r="N6" s="7">
+      <c r="M6" s="7">
         <f>'Sequential results'!I43</f>
         <v>2.1099999999999999E-3</v>
       </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7">
+        <f>MAX(D6:O6)</f>
+        <v>3.0300000000000001E-3</v>
+      </c>
       <c r="Q6" s="7">
-        <f>MAX(E6:P6)</f>
-        <v>3.0300000000000001E-3</v>
-      </c>
-      <c r="R6" s="7">
-        <f>C6/Q6</f>
+        <f>C6/P6</f>
         <v>3.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="6">
         <f>'Sequential results'!$D$13</f>
         <v>1.1109999999999998E-2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7">
         <f>'Sequential results'!D58</f>
         <v>1.97E-3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E7" s="7">
         <f>'Sequential results'!E58</f>
         <v>1.7500000000000003E-3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
         <f>'Sequential results'!F58</f>
         <v>1.2899999999999999E-3</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
         <f>'Sequential results'!G58</f>
         <v>2.0500000000000002E-3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="I7" s="7">
         <f>'Sequential results'!H58</f>
         <v>1.8199999999999998E-3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="J7" s="7">
         <f>'Sequential results'!I58</f>
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
         <f>'Sequential results'!J58</f>
         <v>2.1799999999999996E-3</v>
       </c>
-      <c r="N7" s="7">
+      <c r="M7" s="7">
         <f>'Sequential results'!K58</f>
         <v>1.8299999999999996E-3</v>
       </c>
-      <c r="O7" s="7">
+      <c r="N7" s="7">
         <f>'Sequential results'!L58</f>
         <v>1.2699999999999999E-3</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
+        <f>MAX(D7:O7)</f>
+        <v>2.1799999999999996E-3</v>
+      </c>
       <c r="Q7" s="7">
-        <f>MAX(E7:P7)</f>
-        <v>2.1799999999999996E-3</v>
-      </c>
-      <c r="R7" s="7">
-        <f>C7/Q7</f>
+        <f>C7/P7</f>
         <v>5.0963302752293576</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="C8" s="6">
         <f>'Sequential results'!$D$13</f>
         <v>1.1109999999999998E-2</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="7">
         <f>'Sequential results'!D73</f>
         <v>2.14E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E8" s="7">
         <f>'Sequential results'!E73</f>
         <v>2.3299999999999996E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <f>'Sequential results'!F73</f>
         <v>2.1199999999999995E-3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="G8" s="7">
         <f>'Sequential results'!G73</f>
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="H8" s="7">
         <f>'Sequential results'!H73</f>
         <v>2.0200000000000001E-3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="I8" s="7">
         <f>'Sequential results'!I73</f>
         <v>2.3399999999999996E-3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="J8" s="7">
         <f>'Sequential results'!J73</f>
         <v>2.6700000000000001E-3</v>
       </c>
-      <c r="L8" s="7">
+      <c r="K8" s="7">
         <f>'Sequential results'!K73</f>
         <v>1.8499999999999999E-3</v>
       </c>
-      <c r="M8" s="7">
+      <c r="L8" s="7">
         <f>'Sequential results'!L73</f>
         <v>2.0100000000000001E-3</v>
       </c>
-      <c r="N8" s="7">
+      <c r="M8" s="7">
         <f>'Sequential results'!M73</f>
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="O8" s="7">
+      <c r="N8" s="7">
         <f>'Sequential results'!N73</f>
         <v>2.0900000000000003E-3</v>
       </c>
-      <c r="P8" s="7">
+      <c r="O8" s="7">
         <f>'Sequential results'!O73</f>
         <v>2.4099999999999998E-3</v>
       </c>
+      <c r="P8" s="7">
+        <f>MAX(D8:O8)</f>
+        <v>2.6700000000000001E-3</v>
+      </c>
       <c r="Q8" s="7">
-        <f>MAX(E8:P8)</f>
-        <v>2.6700000000000001E-3</v>
-      </c>
-      <c r="R8" s="7">
-        <f>C8/Q8</f>
+        <f>C8/P8</f>
         <v>4.1610486891385756</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="8">
         <f>'Sequential results'!$E$13</f>
         <v>1.29955</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="9">
         <f>'Sequential results'!R28</f>
         <v>0.47779999999999995</v>
       </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
+      <c r="H9" s="9">
         <f>'Sequential results'!S28</f>
         <v>0.36716999999999994</v>
       </c>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9">
+      <c r="L9" s="9">
         <f>'Sequential results'!T28</f>
         <v>0.36728</v>
       </c>
+      <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="7">
+        <f t="shared" ref="P9:P20" si="0">MAX(D9:O9)</f>
+        <v>0.47779999999999995</v>
+      </c>
       <c r="Q9" s="7">
-        <f t="shared" ref="Q9:Q20" si="0">MAX(E9:P9)</f>
-        <v>0.47779999999999995</v>
-      </c>
-      <c r="R9" s="7">
-        <f t="shared" ref="R9:R20" si="1">C9/Q9</f>
+        <f>C9/P9</f>
         <v>2.7198618668899122</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="8">
         <f>'Sequential results'!$E$13</f>
         <v>1.29955</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="9">
         <f>'Sequential results'!R43</f>
         <v>0.35126999999999997</v>
       </c>
-      <c r="F10" s="9">
+      <c r="E10" s="9">
         <f>'Sequential results'!S43</f>
         <v>0.2755200000000001</v>
       </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
+      <c r="H10" s="9">
         <f>'Sequential results'!T43</f>
         <v>0.20697000000000002</v>
       </c>
-      <c r="J10" s="9">
+      <c r="I10" s="9">
         <f>'Sequential results'!U43</f>
         <v>0.34767000000000003</v>
       </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9">
+      <c r="L10" s="9">
         <f>'Sequential results'!V43</f>
         <v>0.27474000000000004</v>
       </c>
-      <c r="N10" s="9">
+      <c r="M10" s="9">
         <f>'Sequential results'!W43</f>
         <v>0.20699999999999999</v>
       </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>0.35126999999999997</v>
       </c>
-      <c r="R10" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="7">
+        <f>C10/P10</f>
         <v>3.6995758248640649</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="8">
         <f>'Sequential results'!$E$13</f>
         <v>1.29955</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="9">
         <f>'Sequential results'!R58</f>
         <v>0.21965999999999997</v>
       </c>
-      <c r="F11" s="9">
+      <c r="E11" s="9">
         <f>'Sequential results'!S58</f>
         <v>0.22067999999999993</v>
       </c>
-      <c r="G11" s="9">
+      <c r="F11" s="9">
         <f>'Sequential results'!T58</f>
         <v>0.15384999999999999</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <f>'Sequential results'!U58</f>
         <v>0.22046000000000002</v>
       </c>
-      <c r="J11" s="9">
+      <c r="I11" s="9">
         <f>'Sequential results'!V58</f>
         <v>0.22195999999999999</v>
       </c>
-      <c r="K11" s="9">
+      <c r="J11" s="9">
         <f>'Sequential results'!W58</f>
         <v>0.15476000000000001</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
         <f>'Sequential results'!X58</f>
         <v>0.22054000000000001</v>
       </c>
-      <c r="N11" s="9">
+      <c r="M11" s="9">
         <f>'Sequential results'!Y58</f>
         <v>0.22058</v>
       </c>
-      <c r="O11" s="9">
+      <c r="N11" s="9">
         <f>'Sequential results'!Z58</f>
         <v>0.15436</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7">
+      <c r="O11" s="9"/>
+      <c r="P11" s="7">
         <f t="shared" si="0"/>
         <v>0.22195999999999999</v>
       </c>
-      <c r="R11" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="7">
+        <f>C11/P11</f>
         <v>5.8548837628401511</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="8">
         <f>'Sequential results'!$E$13</f>
         <v>1.29955</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="9">
         <f>'Sequential results'!R73</f>
         <v>0.18464</v>
       </c>
-      <c r="F12" s="9">
+      <c r="E12" s="9">
         <f>'Sequential results'!S73</f>
         <v>0.18589</v>
       </c>
-      <c r="G12" s="9">
+      <c r="F12" s="9">
         <f>'Sequential results'!T73</f>
         <v>0.18397000000000002</v>
       </c>
-      <c r="H12" s="9">
+      <c r="G12" s="9">
         <f>'Sequential results'!U73</f>
         <v>0.18378999999999998</v>
       </c>
-      <c r="I12" s="9">
+      <c r="H12" s="9">
         <f>'Sequential results'!V73</f>
         <v>0.18282999999999999</v>
       </c>
-      <c r="J12" s="9">
+      <c r="I12" s="9">
         <f>'Sequential results'!W73</f>
         <v>0.18509999999999999</v>
       </c>
-      <c r="K12" s="9">
+      <c r="J12" s="9">
         <f>'Sequential results'!X73</f>
         <v>0.18473000000000001</v>
       </c>
-      <c r="L12" s="9">
+      <c r="K12" s="9">
         <f>'Sequential results'!Y73</f>
         <v>0.18374000000000001</v>
       </c>
-      <c r="M12" s="9">
+      <c r="L12" s="9">
         <f>'Sequential results'!Z73</f>
         <v>0.18373</v>
       </c>
-      <c r="N12" s="9">
+      <c r="M12" s="9">
         <f>'Sequential results'!AA73</f>
         <v>0.18426999999999999</v>
       </c>
-      <c r="O12" s="9">
+      <c r="N12" s="9">
         <f>'Sequential results'!AB73</f>
         <v>0.18396000000000001</v>
       </c>
-      <c r="P12" s="9">
+      <c r="O12" s="9">
         <f>'Sequential results'!AC73</f>
         <v>0.18380999999999997</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="P12" s="7">
         <f t="shared" si="0"/>
         <v>0.18589</v>
       </c>
-      <c r="R12" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="7">
+        <f>C12/P12</f>
         <v>6.990962397116574</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="10">
         <f>'Sequential results'!$F$13</f>
         <v>15.022870000000001</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="11">
         <f>'Sequential results'!AF28</f>
         <v>5.0890600000000008</v>
       </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11">
+      <c r="H13" s="11">
         <f>'Sequential results'!AG28</f>
         <v>4.9949099999999991</v>
       </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11">
+      <c r="L13" s="11">
         <f>'Sequential results'!AH28</f>
         <v>4.93309</v>
       </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="7">
+      <c r="P13" s="7">
         <f t="shared" si="0"/>
         <v>5.0890600000000008</v>
       </c>
-      <c r="R13" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="7">
+        <f>C13/P13</f>
         <v>2.9519930989220011</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" s="10">
         <f>'Sequential results'!$F$13</f>
         <v>15.022870000000001</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="11">
         <f>'Sequential results'!AF43</f>
         <v>2.7864799999999996</v>
       </c>
-      <c r="F14" s="11">
+      <c r="E14" s="11">
         <f>'Sequential results'!AG43</f>
         <v>2.9033600000000002</v>
       </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
+      <c r="H14" s="11">
         <f>'Sequential results'!AH43</f>
         <v>2.6788600000000002</v>
       </c>
-      <c r="J14" s="11">
+      <c r="I14" s="11">
         <f>'Sequential results'!AI43</f>
         <v>2.7863399999999996</v>
       </c>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
+      <c r="L14" s="11">
         <f>'Sequential results'!AJ43</f>
         <v>2.89459</v>
       </c>
-      <c r="N14" s="11">
+      <c r="M14" s="11">
         <f>'Sequential results'!AK43</f>
         <v>2.6840899999999994</v>
       </c>
+      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="7">
+      <c r="P14" s="7">
         <f t="shared" si="0"/>
         <v>2.9033600000000002</v>
       </c>
-      <c r="R14" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="7">
+        <f>C14/P14</f>
         <v>5.1743049432381794</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C15" s="10">
         <f>'Sequential results'!$F$13</f>
         <v>15.022870000000001</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="11">
         <f>'Sequential results'!AF58</f>
         <v>3.1194099999999998</v>
       </c>
-      <c r="F15" s="11">
+      <c r="E15" s="11">
         <f>'Sequential results'!AG58</f>
         <v>2.6958700000000002</v>
       </c>
-      <c r="G15" s="11">
+      <c r="F15" s="11">
         <f>'Sequential results'!AH58</f>
         <v>2.0220000000000002</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <f>'Sequential results'!AI58</f>
         <v>3.1269400000000003</v>
       </c>
-      <c r="J15" s="11">
+      <c r="I15" s="11">
         <f>'Sequential results'!AJ58</f>
         <v>2.6916500000000005</v>
       </c>
-      <c r="K15" s="11">
+      <c r="J15" s="11">
         <f>'Sequential results'!AK58</f>
         <v>2.0254000000000003</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
         <f>'Sequential results'!AL58</f>
         <v>3.1280900000000003</v>
       </c>
-      <c r="N15" s="11">
+      <c r="M15" s="11">
         <f>'Sequential results'!AM58</f>
         <v>2.6885500000000002</v>
       </c>
-      <c r="O15" s="11">
+      <c r="N15" s="11">
         <f>'Sequential results'!AN58</f>
         <v>2.01999</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="7">
+      <c r="O15" s="11"/>
+      <c r="P15" s="7">
         <f t="shared" si="0"/>
         <v>3.1280900000000003</v>
       </c>
-      <c r="R15" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q15" s="7">
+        <f>C15/P15</f>
         <v>4.8025696191605736</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" s="10">
         <f>'Sequential results'!$F$13</f>
         <v>15.022870000000001</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="11">
         <f>'Sequential results'!AF73</f>
         <v>2.3773500000000003</v>
       </c>
-      <c r="F16" s="11">
+      <c r="E16" s="11">
         <f>'Sequential results'!AG73</f>
         <v>2.3879000000000001</v>
       </c>
-      <c r="G16" s="11">
+      <c r="F16" s="11">
         <f>'Sequential results'!AH73</f>
         <v>2.2757999999999998</v>
       </c>
-      <c r="H16" s="11">
+      <c r="G16" s="11">
         <f>'Sequential results'!AI73</f>
         <v>2.3826700000000001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="H16" s="11">
         <f>'Sequential results'!AJ73</f>
         <v>2.3771299999999997</v>
       </c>
-      <c r="J16" s="11">
+      <c r="I16" s="11">
         <f>'Sequential results'!AK73</f>
         <v>2.2703699999999998</v>
       </c>
-      <c r="K16" s="11">
+      <c r="J16" s="11">
         <f>'Sequential results'!AL73</f>
         <v>2.3876400000000002</v>
       </c>
-      <c r="L16" s="11">
+      <c r="K16" s="11">
         <f>'Sequential results'!AM73</f>
         <v>2.3781400000000006</v>
       </c>
-      <c r="M16" s="11">
+      <c r="L16" s="11">
         <f>'Sequential results'!AN73</f>
         <v>2.2578200000000002</v>
       </c>
-      <c r="N16" s="11">
+      <c r="M16" s="11">
         <f>'Sequential results'!AO73</f>
         <v>2.3801800000000002</v>
       </c>
-      <c r="O16" s="11">
+      <c r="N16" s="11">
         <f>'Sequential results'!AP73</f>
         <v>2.3860399999999999</v>
       </c>
-      <c r="P16" s="11">
+      <c r="O16" s="11">
         <f>'Sequential results'!AQ73</f>
         <v>2.2718699999999998</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="7">
         <f t="shared" si="0"/>
         <v>2.3879000000000001</v>
       </c>
-      <c r="R16" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="7">
+        <f>C16/P16</f>
         <v>6.2912475396792162</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="12">
         <f>'Sequential results'!$G$13</f>
         <v>51.699950000000001</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="13">
         <f>'Sequential results'!AT28</f>
         <v>17.266829999999999</v>
       </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13">
+      <c r="H17" s="13">
         <f>'Sequential results'!AU28</f>
         <v>17.08989</v>
       </c>
+      <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13">
+      <c r="L17" s="13">
         <f>'Sequential results'!AV28</f>
         <v>16.665510000000001</v>
       </c>
+      <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="7">
+      <c r="P17" s="7">
         <f t="shared" si="0"/>
         <v>17.266829999999999</v>
       </c>
-      <c r="R17" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q17" s="7">
+        <f>C17/P17</f>
         <v>2.9941772751570501</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="C18" s="12">
         <f>'Sequential results'!$G$13</f>
         <v>51.699950000000001</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="13">
         <f>'Sequential results'!AT43</f>
         <v>9.676020000000003</v>
       </c>
-      <c r="F18" s="13">
+      <c r="E18" s="13">
         <f>'Sequential results'!AU43</f>
         <v>8.6382700000000021</v>
       </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13">
+      <c r="H18" s="13">
         <f>'Sequential results'!AV43</f>
         <v>8.6085900000000013</v>
       </c>
-      <c r="J18" s="13">
+      <c r="I18" s="13">
         <f>'Sequential results'!AW43</f>
         <v>9.6545299999999976</v>
       </c>
+      <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13">
+      <c r="L18" s="13">
         <f>'Sequential results'!AX43</f>
         <v>8.6219500000000018</v>
       </c>
-      <c r="N18" s="13">
+      <c r="M18" s="13">
         <f>'Sequential results'!AY43</f>
         <v>8.6278199999999998</v>
       </c>
+      <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="7">
+      <c r="P18" s="7">
         <f t="shared" si="0"/>
         <v>9.676020000000003</v>
       </c>
-      <c r="R18" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="7">
+        <f>C18/P18</f>
         <v>5.3431007790393146</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="C19" s="12">
         <f>'Sequential results'!$G$13</f>
         <v>51.699950000000001</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="13">
         <f>'Sequential results'!AT58</f>
         <v>10.528229999999999</v>
       </c>
-      <c r="F19" s="13">
+      <c r="E19" s="13">
         <f>'Sequential results'!AU58</f>
         <v>9.4625400000000006</v>
       </c>
-      <c r="G19" s="13">
+      <c r="F19" s="13">
         <f>'Sequential results'!AV58</f>
         <v>7.3095100000000004</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
         <f>'Sequential results'!AW58</f>
         <v>10.51718</v>
       </c>
-      <c r="J19" s="13">
+      <c r="I19" s="13">
         <f>'Sequential results'!AX58</f>
         <v>9.4469199999999987</v>
       </c>
-      <c r="K19" s="13">
+      <c r="J19" s="13">
         <f>'Sequential results'!AY58</f>
         <v>7.3052900000000012</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13">
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
         <f>'Sequential results'!AZ58</f>
         <v>10.54083</v>
       </c>
-      <c r="N19" s="13">
+      <c r="M19" s="13">
         <f>'Sequential results'!BA58</f>
         <v>9.4864899999999999</v>
       </c>
-      <c r="O19" s="13">
+      <c r="N19" s="13">
         <f>'Sequential results'!BB58</f>
         <v>7.2806099999999985</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="7">
+      <c r="O19" s="13"/>
+      <c r="P19" s="7">
         <f t="shared" si="0"/>
         <v>10.54083</v>
       </c>
-      <c r="R19" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q19" s="7">
+        <f>C19/P19</f>
         <v>4.9047323597857098</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" s="12">
         <f>'Sequential results'!$G$13</f>
         <v>51.699950000000001</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="13">
         <f>'Sequential results'!AT73</f>
         <v>8.1361500000000007</v>
       </c>
-      <c r="F20" s="13">
+      <c r="E20" s="13">
         <f>'Sequential results'!AU73</f>
         <v>8.1237899999999996</v>
       </c>
-      <c r="G20" s="13">
+      <c r="F20" s="13">
         <f>'Sequential results'!AV73</f>
         <v>8.0046499999999998</v>
       </c>
-      <c r="H20" s="13">
+      <c r="G20" s="13">
         <f>'Sequential results'!AW73</f>
         <v>8.1300300000000014</v>
       </c>
-      <c r="I20" s="13">
+      <c r="H20" s="13">
         <f>'Sequential results'!AX73</f>
         <v>8.13992</v>
       </c>
-      <c r="J20" s="13">
+      <c r="I20" s="13">
         <f>'Sequential results'!AY73</f>
         <v>7.9438100000000009</v>
       </c>
-      <c r="K20" s="13">
+      <c r="J20" s="13">
         <f>'Sequential results'!AZ73</f>
         <v>8.1435199999999988</v>
       </c>
-      <c r="L20" s="13">
+      <c r="K20" s="13">
         <f>'Sequential results'!BA73</f>
         <v>8.1070999999999991</v>
       </c>
-      <c r="M20" s="13">
+      <c r="L20" s="13">
         <f>'Sequential results'!BB73</f>
         <v>8.0002299999999984</v>
       </c>
-      <c r="N20" s="13">
+      <c r="M20" s="13">
         <f>'Sequential results'!BC73</f>
         <v>8.1368100000000005</v>
       </c>
-      <c r="O20" s="13">
+      <c r="N20" s="13">
         <f>'Sequential results'!BD73</f>
         <v>8.1429799999999979</v>
       </c>
-      <c r="P20" s="13">
+      <c r="O20" s="13">
         <f>'Sequential results'!BE73</f>
         <v>7.9989999999999997</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="P20" s="7">
         <f t="shared" si="0"/>
         <v>8.1435199999999988</v>
       </c>
-      <c r="R20" s="7">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="7">
+        <f>C20/P20</f>
         <v>6.3485998683615943</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/documentation/Results.xlsx
+++ b/src/documentation/Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="20">
   <si>
     <t>Sequential Time</t>
   </si>
@@ -646,7 +646,4169 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Matrix multiplication 3 nodes (1 CPU each)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1498956692913386"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Parallel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$26:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$N$26:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0890600000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.266829999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1045-4B02-BABB-7F442A6DE5B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$26:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$O$26:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1109999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.022870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.699950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1045-4B02-BABB-7F442A6DE5B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594275384"/>
+        <c:axId val="594276040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594275384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594276040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594276040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594275384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Matrix multiplication 3 nodes (2 CPU each)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1498956692913386"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Parallel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$40:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$N$40:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35126999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9033600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.676020000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C3-48ED-9BC7-FBAA2451385C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$40:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$O$40:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1109999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.022870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.699950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16C3-48ED-9BC7-FBAA2451385C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594275384"/>
+        <c:axId val="594276040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594275384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594276040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594276040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594275384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Matrix multiplication 3 nodes (3 CPU each)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1498956692913386"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Parallel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$71:$M$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$N$71:$N$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1799999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22195999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1280900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.54083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B152-4F69-874A-2003CD4A7ED6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$71:$M$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$O$71:$O$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1109999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.022870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.699950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B152-4F69-874A-2003CD4A7ED6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594275384"/>
+        <c:axId val="594276040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594275384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594276040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594276040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594275384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Matrix multiplication 3 nodes (4 CPU each)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1498956692913386"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Parallel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$95:$M$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$N$95:$N$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1435199999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A65-46DE-A191-99E2DE3ED1DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$M$95:$M$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$O$95:$O$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1109999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.022870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.699950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A65-46DE-A191-99E2DE3ED1DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594275384"/>
+        <c:axId val="594276040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594275384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594276040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594276040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594275384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Matrix multiplication 3 nodes </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1498956692913386"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$Y$7:$Y$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AD$7:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1109999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.022870000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.699950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C1F-4D9B-9D8A-9730955A714D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$Y$7:$Y$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$Z$7:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.2500000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0890600000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.266829999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C1F-4D9B-9D8A-9730955A714D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 CPUs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AA$7:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35126999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9033600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.676020000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C1F-4D9B-9D8A-9730955A714D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3 CPUs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AB$7:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1799999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22195999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1280900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.54083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C1F-4D9B-9D8A-9730955A714D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4 CPUs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AC$7:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1435199999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C1F-4D9B-9D8A-9730955A714D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594275384"/>
+        <c:axId val="594276040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594275384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594276040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594276040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594275384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1498956692913386"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$Y$7:$Y$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60x60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144x144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216x216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$Z$13:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1161904761904755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7198618668899122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9519930989220011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9941772751570501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DBC-490C-AFC3-4882EB1C825A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 CPUs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AA$13:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6995758248640649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1743049432381794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3431007790393146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DBC-490C-AFC3-4882EB1C825A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 CPUs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AB$13:$AB$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0963302752293576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8548837628401511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8025696191605736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9047323597857098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8DBC-490C-AFC3-4882EB1C825A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 CPUs</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$AC$13:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.1610486891385756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.990962397116574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2912475396792162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3485998683615943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8DBC-490C-AFC3-4882EB1C825A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594275384"/>
+        <c:axId val="594276040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594275384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594276040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594276040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594275384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1235,6 +5397,3300 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1262,6 +8718,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1567,10 +9213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q20"/>
+  <dimension ref="B3:AD98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +9224,7 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +9244,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +9294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1686,7 +9332,7 @@
         <v>2.1161904761904755</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1733,7 +9379,7 @@
         <v>3.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1788,8 +9434,26 @@
         <f>C7/P7</f>
         <v>5.0963302752293576</v>
       </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>5.2500000000000012E-3</v>
+      </c>
+      <c r="AA7">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="AB7">
+        <v>2.1799999999999996E-3</v>
+      </c>
+      <c r="AC7">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.1109999999999998E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1853,8 +9517,26 @@
         <f>C8/P8</f>
         <v>4.1610486891385756</v>
       </c>
+      <c r="Y8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>0.47779999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.35126999999999997</v>
+      </c>
+      <c r="AB8">
+        <v>0.22195999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.18589</v>
+      </c>
+      <c r="AD8">
+        <v>1.29955</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1891,8 +9573,26 @@
         <f>C9/P9</f>
         <v>2.7198618668899122</v>
       </c>
+      <c r="Y9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>5.0890600000000008</v>
+      </c>
+      <c r="AA9">
+        <v>2.9033600000000002</v>
+      </c>
+      <c r="AB9">
+        <v>3.1280900000000003</v>
+      </c>
+      <c r="AC9">
+        <v>2.3879000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>15.022870000000001</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1938,8 +9638,26 @@
         <f>C10/P10</f>
         <v>3.6995758248640649</v>
       </c>
+      <c r="Y10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>17.266829999999999</v>
+      </c>
+      <c r="AA10">
+        <v>9.676020000000003</v>
+      </c>
+      <c r="AB10">
+        <v>10.54083</v>
+      </c>
+      <c r="AC10">
+        <v>8.1435199999999988</v>
+      </c>
+      <c r="AD10">
+        <v>51.699950000000001</v>
+      </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +9713,7 @@
         <v>5.8548837628401511</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +9778,7 @@
         <v>6.990962397116574</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
@@ -2097,8 +9815,30 @@
         <f>C13/P13</f>
         <v>2.9519930989220011</v>
       </c>
+      <c r="Y13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <f>Q5</f>
+        <v>2.1161904761904755</v>
+      </c>
+      <c r="AA13">
+        <f>Q6</f>
+        <v>3.6666666666666661</v>
+      </c>
+      <c r="AB13">
+        <f>Q7</f>
+        <v>5.0963302752293576</v>
+      </c>
+      <c r="AC13">
+        <f>Q8</f>
+        <v>4.1610486891385756</v>
+      </c>
+      <c r="AD13">
+        <v>1.1109999999999998E-2</v>
+      </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
@@ -2144,8 +9884,30 @@
         <f>C14/P14</f>
         <v>5.1743049432381794</v>
       </c>
+      <c r="Y14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <f>Q9</f>
+        <v>2.7198618668899122</v>
+      </c>
+      <c r="AA14">
+        <f>Q10</f>
+        <v>3.6995758248640649</v>
+      </c>
+      <c r="AB14">
+        <f>Q11</f>
+        <v>5.8548837628401511</v>
+      </c>
+      <c r="AC14">
+        <f>Q12</f>
+        <v>6.990962397116574</v>
+      </c>
+      <c r="AD14">
+        <v>1.29955</v>
+      </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
@@ -2200,8 +9962,30 @@
         <f>C15/P15</f>
         <v>4.8025696191605736</v>
       </c>
+      <c r="Y15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <f>Q13</f>
+        <v>2.9519930989220011</v>
+      </c>
+      <c r="AA15">
+        <f>Q14</f>
+        <v>5.1743049432381794</v>
+      </c>
+      <c r="AB15">
+        <f>Q15</f>
+        <v>4.8025696191605736</v>
+      </c>
+      <c r="AC15">
+        <f>Q16</f>
+        <v>6.2912475396792162</v>
+      </c>
+      <c r="AD15">
+        <v>15.022870000000001</v>
+      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
@@ -2264,6 +10048,28 @@
       <c r="Q16" s="7">
         <f>C16/P16</f>
         <v>6.2912475396792162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <f>Q17</f>
+        <v>2.9941772751570501</v>
+      </c>
+      <c r="AA16">
+        <f>Q18</f>
+        <v>5.3431007790393146</v>
+      </c>
+      <c r="AB16">
+        <f>Q19</f>
+        <v>4.9047323597857098</v>
+      </c>
+      <c r="AC16">
+        <f>Q20</f>
+        <v>6.3485998683615943</v>
+      </c>
+      <c r="AD16">
+        <v>51.699950000000001</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -2470,6 +10276,198 @@
       <c r="Q20" s="7">
         <f>C20/P20</f>
         <v>6.3485998683615943</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5.2500000000000012E-3</v>
+      </c>
+      <c r="O26">
+        <f>C5</f>
+        <v>1.1109999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.47779999999999995</v>
+      </c>
+      <c r="O27">
+        <f>C9</f>
+        <v>1.29955</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>5.0890600000000008</v>
+      </c>
+      <c r="O28">
+        <f>C13</f>
+        <v>15.022870000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>17.266829999999999</v>
+      </c>
+      <c r="O29">
+        <f>C17</f>
+        <v>51.699950000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="7">
+        <f>P6</f>
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="O40">
+        <v>1.1109999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="7">
+        <f>P10</f>
+        <v>0.35126999999999997</v>
+      </c>
+      <c r="O41">
+        <v>1.29955</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="7">
+        <f>P14</f>
+        <v>2.9033600000000002</v>
+      </c>
+      <c r="O42">
+        <v>15.022870000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="7">
+        <f>P18</f>
+        <v>9.676020000000003</v>
+      </c>
+      <c r="O43">
+        <v>51.699950000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <f>P7</f>
+        <v>2.1799999999999996E-3</v>
+      </c>
+      <c r="O71">
+        <v>1.1109999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <f>P11</f>
+        <v>0.22195999999999999</v>
+      </c>
+      <c r="O72">
+        <v>1.29955</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <f>P15</f>
+        <v>3.1280900000000003</v>
+      </c>
+      <c r="O73">
+        <v>15.022870000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <f>P19</f>
+        <v>10.54083</v>
+      </c>
+      <c r="O74">
+        <v>51.699950000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <f>P8</f>
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="O95">
+        <v>1.1109999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <f>P12</f>
+        <v>0.18589</v>
+      </c>
+      <c r="O96">
+        <v>1.29955</v>
+      </c>
+    </row>
+    <row r="97" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <f>P16</f>
+        <v>2.3879000000000001</v>
+      </c>
+      <c r="O97">
+        <v>15.022870000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <f>P20</f>
+        <v>8.1435199999999988</v>
+      </c>
+      <c r="O98">
+        <v>51.699950000000001</v>
       </c>
     </row>
   </sheetData>
